--- a/data/卡台账模板.xlsx
+++ b/data/卡台账模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonzhang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonzhang/program/datagovernance/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1922B29B-8E34-794D-B0D7-A82DE940EF3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F328649C-6CA0-6F40-ABDC-53B55BF1C147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15080" xr2:uid="{3A25DEFA-F410-1241-BC14-2E6C94F54001}"/>
+    <workbookView xWindow="-440" yWindow="6240" windowWidth="27240" windowHeight="15080" xr2:uid="{3A25DEFA-F410-1241-BC14-2E6C94F54001}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>所属账号</t>
   </si>
@@ -69,9 +69,6 @@
     <t>41424242424242424</t>
   </si>
   <si>
-    <t>10.131.131.13</t>
-  </si>
-  <si>
     <t>移动</t>
   </si>
   <si>
@@ -88,13 +85,34 @@
   </si>
   <si>
     <t>联通</t>
+  </si>
+  <si>
+    <t>BE25212314</t>
+  </si>
+  <si>
+    <t>BE25212315</t>
+  </si>
+  <si>
+    <t>10.131.131.15</t>
+  </si>
+  <si>
+    <t>192.168.1.2</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>151562152135135</t>
+  </si>
+  <si>
+    <t>151562152135136</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +125,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -471,10 +495,14 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -507,52 +535,81 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>